--- a/test/method-test.xlsx
+++ b/test/method-test.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\Reactjs\sample-3\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cong.huynh\code\sample-code\sample-3\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA3D1FF-3F12-4D46-A7E5-D3E435EBD6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{20AE53D4-EE43-41F8-8973-EA242225F264}"/>
+    <workbookView xWindow="825" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GETS" sheetId="1" r:id="rId1"/>
@@ -78,19 +77,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="4" tint="-0.249977111117893"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -431,20 +430,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456EAE28-E1BA-48E4-B7A5-389705416034}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C6"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.5" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
@@ -490,20 +489,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74C27D24-6A5E-4EB2-82FF-C43C887B0E4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.5" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
